--- a/src/MagicalBattle/config/Ability.xlsx
+++ b/src/MagicalBattle/config/Ability.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pudding\JavaFXFinalProject\src\sample\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pudding\JavaFXFinalProject\src\MagicalBattle\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -314,6 +314,18 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,26 +350,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +532,7 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61111111111111116</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.42857142857142866</c:v>
@@ -608,7 +608,7 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0.8666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.21428571428571433</c:v>
@@ -684,7 +684,7 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.28571428571428581</c:v>
@@ -760,7 +760,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3888888888888889</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.42857142857142866</c:v>
@@ -856,7 +856,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.64285714285714279</c:v>
@@ -932,7 +932,7 @@
                   <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.28571428571428581</c:v>
@@ -954,11 +954,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1716223856"/>
-        <c:axId val="1716217328"/>
+        <c:axId val="1538819744"/>
+        <c:axId val="1538821376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1716223856"/>
+        <c:axId val="1538819744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1001,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1716217328"/>
+        <c:crossAx val="1538821376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1009,7 +1009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1716217328"/>
+        <c:axId val="1538821376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1060,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1716223856"/>
+        <c:crossAx val="1538819744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1984,7 +1984,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1994,8 +1994,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2032,7 +2032,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="F3" s="6">
         <f t="shared" si="0"/>
-        <v>0.61111111111111116</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="0"/>
@@ -2072,7 +2072,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2088,7 +2088,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7">
         <v>0.85</v>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="F5" s="7">
         <f t="shared" si="1"/>
-        <v>0.88888888888888884</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="1"/>
@@ -2128,7 +2128,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2144,7 +2144,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G6" s="8">
         <v>0.9</v>
@@ -2154,7 +2154,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="2"/>
@@ -2187,60 +2187,60 @@
       <c r="A8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="14">
         <v>300</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="14">
         <v>160</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="14">
         <v>30</v>
       </c>
-      <c r="F8" s="25">
-        <v>7</v>
-      </c>
-      <c r="G8" s="25">
+      <c r="F8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="23"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="14">
         <f t="shared" ref="C9:H9" si="3">(C8-C15)/C16</f>
         <v>0.5</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="14">
         <f t="shared" si="3"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="14">
         <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="14">
         <f t="shared" si="3"/>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="G9" s="25">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G9" s="14">
         <f t="shared" si="3"/>
         <v>0.42857142857142866</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="14">
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2256,7 +2256,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" s="9">
         <v>1.1499999999999999</v>
@@ -2266,7 +2266,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="19"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="F11" s="9">
         <f t="shared" si="4"/>
-        <v>0.27777777777777779</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="4"/>
@@ -2296,66 +2296,66 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="12">
         <v>320</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="12">
         <v>160</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="12">
         <v>26</v>
       </c>
-      <c r="F12" s="21">
-        <v>9</v>
-      </c>
-      <c r="G12" s="21">
+      <c r="F12" s="12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12">
         <v>0.9</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="12">
         <f t="shared" ref="C13:H13" si="5">(C12-C15)/C16</f>
         <v>0.6</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="12">
         <f t="shared" si="5"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="12">
         <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="12">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="12">
         <f t="shared" si="5"/>
         <v>0.28571428571428581</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="12">
         <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="10">
         <v>400</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G14" s="10">
         <v>1.4</v>
@@ -2376,10 +2376,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="10">
         <v>200</v>
       </c>
@@ -2400,10 +2400,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="10">
         <f>C14-C15</f>
         <v>200</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="F16" s="10">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="6"/>
